--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ECC59F-EF98-4220-B72C-738BD31E354D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C180728-A591-4A1B-BD8E-2B95BE485CCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="140">
   <si>
     <t>santest1</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>Receiver street 10</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
   </si>
 </sst>
 </file>
@@ -786,15 +783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="42.140625" collapsed="false"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1078,23 +1075,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="12.28515625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="22.7109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="21.5703125" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="13.42578125" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1611,9 +1608,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="false"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,12 +1658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,22 +1765,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE8A79-06EC-42FF-A015-CC665F80CC81}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,9 +1807,6 @@
       </c>
       <c r="H1" t="s">
         <v>89</v>
-      </c>
-      <c r="V1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8A602-BF86-4836-AB42-E1919FCFFEB0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2015,13 +2009,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C180728-A591-4A1B-BD8E-2B95BE485CCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F507566-A53D-43CA-A270-F132C42EA23F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
   <si>
     <t>santest1</t>
   </si>
@@ -449,6 +449,30 @@
   </si>
   <si>
     <t>Receiver street 10</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169457-5927513FDBA73F7FF88941604C046B26/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169458-AE88CF7DE6E1B81DBB0A426927569231/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169459-D5FE081DA9DDA3D4775A4E567C262ED6/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169460-E41F2A76D4E78A02D07A8805E5C6F3D5/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169461-DE4523DB8DE6FE10E1172FE76983924C/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169462-D34B6E9F4E51D425D15AC6557BE952CD/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169463-723576EDF846FAA45CA0C9B69C62757D/all.pdf</t>
   </si>
 </sst>
 </file>
@@ -783,15 +807,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,10 +880,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60FD6A-CCE7-473C-ACF7-D9BC42ACBF18}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,14 +939,6 @@
         <v>159878</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1717</v>
-      </c>
-      <c r="B7">
-        <v>1827</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -930,20 +946,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -963,13 +979,16 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -977,13 +996,16 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -997,13 +1019,16 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
+      <c r="V3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1017,13 +1042,16 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
+      <c r="V4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1031,13 +1059,16 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
+      <c r="V5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
@@ -1045,19 +1076,25 @@
       <c r="D6" t="s">
         <v>128</v>
       </c>
+      <c r="V6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1075,23 +1112,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1524,7 +1561,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,9 +1645,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,18 +1689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA2F49-49B6-4FD2-A53F-7D7A78264C03}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,25 +1802,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE8A79-06EC-42FF-A015-CC665F80CC81}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1808,8 +1845,11 @@
       <c r="H1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1823,7 +1863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1849,7 +1889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1863,7 +1903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1877,7 +1917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1891,7 +1931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -1926,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8A602-BF86-4836-AB42-E1919FCFFEB0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2009,13 +2049,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F507566-A53D-43CA-A270-F132C42EA23F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC705E30-71B1-4920-B1F2-91EED0ACA3CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
   <si>
     <t>santest1</t>
   </si>
@@ -452,27 +452,6 @@
   </si>
   <si>
     <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169457-5927513FDBA73F7FF88941604C046B26/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169458-AE88CF7DE6E1B81DBB0A426927569231/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169459-D5FE081DA9DDA3D4775A4E567C262ED6/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169460-E41F2A76D4E78A02D07A8805E5C6F3D5/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169461-DE4523DB8DE6FE10E1172FE76983924C/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169462-D34B6E9F4E51D425D15AC6557BE952CD/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169463-723576EDF846FAA45CA0C9B69C62757D/all.pdf</t>
   </si>
 </sst>
 </file>
@@ -813,9 +792,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,9 +958,6 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -996,9 +972,6 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1019,9 +992,6 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="V3" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1042,9 +1012,6 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1059,9 +1026,6 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="V5" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1076,9 +1040,6 @@
       <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="V6" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1092,9 +1053,6 @@
       </c>
       <c r="D7" t="s">
         <v>68</v>
-      </c>
-      <c r="V7" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1112,23 +1070,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1645,9 +1603,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,12 +1653,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,14 +1768,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -2049,13 +2007,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC705E30-71B1-4920-B1F2-91EED0ACA3CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5391D4-9E09-4271-8578-1B664C5BD5BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5391D4-9E09-4271-8578-1B664C5BD5BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F0E9E-CCFB-41EA-BB83-60C4A2CE1F1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
   <si>
     <t>santest1</t>
   </si>
@@ -406,12 +406,6 @@
     <t>santhosh</t>
   </si>
   <si>
-    <t>sanuat1</t>
-  </si>
-  <si>
-    <t>sanuat2</t>
-  </si>
-  <si>
     <t>wilia</t>
   </si>
   <si>
@@ -452,6 +446,18 @@
   </si>
   <si>
     <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
+  </si>
+  <si>
+    <t>mlaw</t>
+  </si>
+  <si>
+    <t>ptsbjob</t>
+  </si>
+  <si>
+    <t>sanuat8</t>
+  </si>
+  <si>
+    <t>sanuat9</t>
   </si>
 </sst>
 </file>
@@ -790,14 +796,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -819,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -830,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -841,7 +847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -854,6 +860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -865,9 +872,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>172234</v>
       </c>
@@ -878,7 +885,7 @@
         <v>148756</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143456</v>
       </c>
@@ -886,7 +893,7 @@
         <v>153678</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>154567</v>
       </c>
@@ -894,7 +901,7 @@
         <v>148756</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>153458</v>
       </c>
@@ -908,18 +915,19 @@
         <v>176789</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>129878</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>159878</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -927,18 +935,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -959,12 +967,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -973,12 +981,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -993,12 +1001,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1013,12 +1021,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1027,26 +1035,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -1057,6 +1065,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1068,28 +1077,28 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="22" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="12" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1516,15 +1525,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCCBCDC-AD8C-4F89-844E-3D1BD3AD5816}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1556,40 +1565,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1598,17 +1624,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1640,6 +1666,7 @@
     <hyperlink ref="C2" r:id="rId6" xr:uid="{36A1461C-0661-4415-93B3-12DFB89535C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1651,17 +1678,17 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1689,7 +1716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1697,7 +1724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1705,7 +1732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1739,22 +1766,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
         <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1766,19 +1794,19 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1804,10 +1832,10 @@
         <v>89</v>
       </c>
       <c r="V1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1821,7 +1849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1847,7 +1875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1861,7 +1889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1875,7 +1903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1889,27 +1917,27 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
       <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
         <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>93</v>
@@ -1917,6 +1945,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1928,9 +1957,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>172234</v>
       </c>
@@ -1941,7 +1970,7 @@
         <v>148756</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143456</v>
       </c>
@@ -1949,7 +1978,7 @@
         <v>153678</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>154567</v>
       </c>
@@ -1957,7 +1986,7 @@
         <v>148756</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>153458</v>
       </c>
@@ -1971,17 +2000,17 @@
         <v>176789</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>129878</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>159878</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>153678</v>
       </c>
@@ -1994,6 +2023,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2005,18 +2035,18 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2042,7 +2072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2056,7 +2086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2082,7 +2112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2096,7 +2126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -2110,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -2124,27 +2154,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>114</v>
       </c>
       <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
         <v>137</v>
-      </c>
-      <c r="F7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" t="s">
         <v>113</v>
@@ -2152,5 +2182,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F0E9E-CCFB-41EA-BB83-60C4A2CE1F1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6628DD-48A1-470C-9C21-E4CCAE4F90F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
   <si>
     <t>santest1</t>
   </si>
@@ -106,358 +106,358 @@
     <t>ria</t>
   </si>
   <si>
-    <t>sophie</t>
-  </si>
-  <si>
-    <t>emily</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie</t>
+  </si>
+  <si>
+    <t>https://uat.lawlink.ie</t>
+  </si>
+  <si>
+    <t>https://staging.lawlink.ie</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie</t>
+  </si>
+  <si>
+    <t>https://uat.cid.ie</t>
+  </si>
+  <si>
+    <t>https://staging.cid.ie</t>
+  </si>
+  <si>
+    <t>winston</t>
+  </si>
+  <si>
+    <t>volin</t>
+  </si>
+  <si>
+    <t>jazoo</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>high street, dublin 7</t>
+  </si>
+  <si>
+    <t>high street, dublin 8</t>
+  </si>
+  <si>
+    <t>high street, dublin 9</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>high street, dublin 10</t>
+  </si>
+  <si>
+    <t>high street, dublin 11</t>
+  </si>
+  <si>
+    <t>high street, dublin 12</t>
+  </si>
+  <si>
+    <t>high street, dublin 13</t>
+  </si>
+  <si>
+    <t>high street, dublin 14</t>
+  </si>
+  <si>
+    <t>high street, dublin 16</t>
+  </si>
+  <si>
+    <t>high street, dublin 17</t>
+  </si>
+  <si>
+    <t>high street, dublin 18</t>
+  </si>
+  <si>
+    <t>low street 1</t>
+  </si>
+  <si>
+    <t>low street 2</t>
+  </si>
+  <si>
+    <t>low street 3</t>
+  </si>
+  <si>
+    <t>low street 4</t>
+  </si>
+  <si>
+    <t>low street 5</t>
+  </si>
+  <si>
+    <t>low street 6</t>
+  </si>
+  <si>
+    <t>low street 7</t>
+  </si>
+  <si>
+    <t>low street 8</t>
+  </si>
+  <si>
+    <t>low street 9</t>
+  </si>
+  <si>
+    <t>Kerry-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Kildare-Up to 1 day</t>
+  </si>
+  <si>
+    <t>Kilkenny-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Laois-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Leitrim-Up to 3/4 days</t>
+  </si>
+  <si>
+    <t>Limerick-Up to 3/4 days</t>
+  </si>
+  <si>
+    <t>Longford-Up to 3/4 days</t>
+  </si>
+  <si>
+    <t>Louth-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Mayo-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>low street 10</t>
+  </si>
+  <si>
+    <t>Meath-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Monaghan-Up to 4 weeks</t>
+  </si>
+  <si>
+    <t>samuel</t>
+  </si>
+  <si>
+    <t>johnson</t>
+  </si>
+  <si>
+    <t>middle street 1</t>
+  </si>
+  <si>
+    <t>Dublin/Cork</t>
+  </si>
+  <si>
+    <t>mirasah</t>
+  </si>
+  <si>
+    <t>kobian</t>
+  </si>
+  <si>
+    <t>middle street 2</t>
+  </si>
+  <si>
+    <t>Wicklow/Wexford (Ordinary)</t>
+  </si>
+  <si>
+    <t>middle street 3</t>
+  </si>
+  <si>
+    <t>Jasim</t>
+  </si>
+  <si>
+    <t>Wicklow/Wexford (Revenue)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>maurion</t>
+  </si>
+  <si>
+    <t>jamson</t>
+  </si>
+  <si>
+    <t>middle street 5</t>
+  </si>
+  <si>
+    <t>gordon</t>
+  </si>
+  <si>
+    <t>janson</t>
+  </si>
+  <si>
+    <t>lissa</t>
+  </si>
+  <si>
+    <t>kariaon</t>
+  </si>
+  <si>
+    <t>jim</t>
+  </si>
+  <si>
+    <t>middle street 6</t>
+  </si>
+  <si>
+    <t>middle street 7</t>
+  </si>
+  <si>
+    <t>middle street 8</t>
+  </si>
+  <si>
+    <t>middle street 9</t>
+  </si>
+  <si>
+    <t>Carlow</t>
+  </si>
+  <si>
+    <t>Cavan</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Donegal</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Receiver street 1</t>
+  </si>
+  <si>
+    <t>Receiver street 2</t>
+  </si>
+  <si>
+    <t>Receiver street 3</t>
+  </si>
+  <si>
+    <t>Receiver street 5</t>
+  </si>
+  <si>
+    <t>Receiver street 6</t>
+  </si>
+  <si>
+    <t>Receiver street 7</t>
+  </si>
+  <si>
+    <t>Receiver street 8</t>
+  </si>
+  <si>
+    <t>Receiver street 9</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>santhosh</t>
+  </si>
+  <si>
+    <t>sanstg1</t>
+  </si>
+  <si>
+    <t>sanstg2</t>
+  </si>
+  <si>
+    <t>low street 11</t>
+  </si>
+  <si>
+    <t>Offaly-Up to 2/3 days</t>
+  </si>
+  <si>
+    <t>Roscommon-Up to 3/4 days</t>
+  </si>
+  <si>
+    <t>warren</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>middle street 10</t>
+  </si>
+  <si>
+    <t>winchy</t>
+  </si>
+  <si>
+    <t>walsh</t>
+  </si>
+  <si>
+    <t>Receiver street 10</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
+  </si>
+  <si>
+    <t>mlaw</t>
+  </si>
+  <si>
+    <t>ptsbjob</t>
+  </si>
+  <si>
+    <t>sanuat8</t>
+  </si>
+  <si>
+    <t>sanuat9</t>
+  </si>
+  <si>
+    <t>murphy</t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>daniel</t>
   </si>
   <si>
     <t>james</t>
   </si>
   <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>grace</t>
-  </si>
-  <si>
-    <t>sean</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie</t>
-  </si>
-  <si>
-    <t>https://uat.lawlink.ie</t>
-  </si>
-  <si>
-    <t>https://staging.lawlink.ie</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie</t>
-  </si>
-  <si>
-    <t>https://uat.cid.ie</t>
-  </si>
-  <si>
-    <t>https://staging.cid.ie</t>
-  </si>
-  <si>
-    <t>winston</t>
-  </si>
-  <si>
-    <t>volin</t>
-  </si>
-  <si>
-    <t>jazoo</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>high street, dublin 7</t>
-  </si>
-  <si>
-    <t>high street, dublin 8</t>
-  </si>
-  <si>
-    <t>high street, dublin 9</t>
-  </si>
-  <si>
-    <t>harry</t>
-  </si>
-  <si>
-    <t>potter</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>high street, dublin 10</t>
-  </si>
-  <si>
-    <t>high street, dublin 11</t>
-  </si>
-  <si>
-    <t>high street, dublin 12</t>
-  </si>
-  <si>
-    <t>high street, dublin 13</t>
-  </si>
-  <si>
-    <t>high street, dublin 14</t>
-  </si>
-  <si>
-    <t>high street, dublin 16</t>
-  </si>
-  <si>
-    <t>high street, dublin 17</t>
-  </si>
-  <si>
-    <t>high street, dublin 18</t>
-  </si>
-  <si>
-    <t>meera</t>
-  </si>
-  <si>
-    <t>roma</t>
-  </si>
-  <si>
-    <t>low street 1</t>
-  </si>
-  <si>
-    <t>low street 2</t>
-  </si>
-  <si>
-    <t>low street 3</t>
-  </si>
-  <si>
-    <t>low street 4</t>
-  </si>
-  <si>
-    <t>low street 5</t>
-  </si>
-  <si>
-    <t>low street 6</t>
-  </si>
-  <si>
-    <t>low street 7</t>
-  </si>
-  <si>
-    <t>low street 8</t>
-  </si>
-  <si>
-    <t>kima</t>
-  </si>
-  <si>
-    <t>joss</t>
-  </si>
-  <si>
-    <t>low street 9</t>
-  </si>
-  <si>
-    <t>Kerry-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Kildare-Up to 1 day</t>
-  </si>
-  <si>
-    <t>Kilkenny-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Laois-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Leitrim-Up to 3/4 days</t>
-  </si>
-  <si>
-    <t>Limerick-Up to 3/4 days</t>
-  </si>
-  <si>
-    <t>Longford-Up to 3/4 days</t>
-  </si>
-  <si>
-    <t>Louth-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Mayo-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>low street 10</t>
-  </si>
-  <si>
-    <t>Meath-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Monaghan-Up to 4 weeks</t>
-  </si>
-  <si>
-    <t>samuel</t>
-  </si>
-  <si>
-    <t>johnson</t>
-  </si>
-  <si>
-    <t>middle street 1</t>
-  </si>
-  <si>
-    <t>Dublin/Cork</t>
-  </si>
-  <si>
-    <t>mirasah</t>
-  </si>
-  <si>
-    <t>kobian</t>
-  </si>
-  <si>
-    <t>middle street 2</t>
-  </si>
-  <si>
-    <t>Wicklow/Wexford (Ordinary)</t>
-  </si>
-  <si>
-    <t>middle street 3</t>
-  </si>
-  <si>
-    <t>Jasim</t>
-  </si>
-  <si>
-    <t>Wicklow/Wexford (Revenue)</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>williams</t>
-  </si>
-  <si>
-    <t>maurion</t>
-  </si>
-  <si>
-    <t>jamson</t>
-  </si>
-  <si>
-    <t>middle street 5</t>
-  </si>
-  <si>
-    <t>gordon</t>
-  </si>
-  <si>
-    <t>janson</t>
-  </si>
-  <si>
-    <t>lissa</t>
-  </si>
-  <si>
-    <t>kariaon</t>
-  </si>
-  <si>
-    <t>jim</t>
-  </si>
-  <si>
-    <t>middle street 6</t>
-  </si>
-  <si>
-    <t>middle street 7</t>
-  </si>
-  <si>
-    <t>middle street 8</t>
-  </si>
-  <si>
-    <t>middle street 9</t>
-  </si>
-  <si>
-    <t>Carlow</t>
-  </si>
-  <si>
-    <t>Cavan</t>
-  </si>
-  <si>
-    <t>Clare</t>
-  </si>
-  <si>
-    <t>Cork</t>
-  </si>
-  <si>
-    <t>Donegal</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Galway</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
-    <t>Receiver street 1</t>
-  </si>
-  <si>
-    <t>Receiver street 2</t>
-  </si>
-  <si>
-    <t>Receiver street 3</t>
-  </si>
-  <si>
-    <t>Receiver street 5</t>
-  </si>
-  <si>
-    <t>Receiver street 6</t>
-  </si>
-  <si>
-    <t>Receiver street 7</t>
-  </si>
-  <si>
-    <t>Receiver street 8</t>
-  </si>
-  <si>
-    <t>Receiver street 9</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>santhosh</t>
-  </si>
-  <si>
-    <t>wilia</t>
-  </si>
-  <si>
-    <t>laso</t>
-  </si>
-  <si>
-    <t>sanstg1</t>
-  </si>
-  <si>
-    <t>sanstg2</t>
-  </si>
-  <si>
-    <t>low street 11</t>
-  </si>
-  <si>
-    <t>Offaly-Up to 2/3 days</t>
-  </si>
-  <si>
-    <t>Roscommon-Up to 3/4 days</t>
-  </si>
-  <si>
-    <t>warren</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>middle street 10</t>
-  </si>
-  <si>
-    <t>winchy</t>
-  </si>
-  <si>
-    <t>walsh</t>
-  </si>
-  <si>
-    <t>Receiver street 10</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
-  </si>
-  <si>
-    <t>mlaw</t>
-  </si>
-  <si>
-    <t>ptsbjob</t>
-  </si>
-  <si>
-    <t>sanuat8</t>
-  </si>
-  <si>
-    <t>sanuat9</t>
+    <t>joseph</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>mccarthy</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>o'neill</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>o'sullivan</t>
+  </si>
+  <si>
+    <t>thomas</t>
   </si>
 </sst>
 </file>
@@ -866,10 +866,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60FD6A-CCE7-473C-ACF7-D9BC42ACBF18}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,6 +923,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>159878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>567677</v>
       </c>
     </row>
   </sheetData>
@@ -935,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,16 +960,16 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -975,10 +980,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -989,16 +1000,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1009,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,10 +1046,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1043,10 +1072,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1057,10 +1092,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1130,10 +1177,10 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1">
         <v>26597</v>
@@ -1177,10 +1224,10 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1">
         <v>22944</v>
@@ -1194,10 +1241,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1">
         <v>22944</v>
@@ -1206,13 +1253,13 @@
         <v>30249</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H3" s="1">
         <v>22944</v>
@@ -1221,13 +1268,13 @@
         <v>26597</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M3" s="1">
         <v>19292</v>
@@ -1236,13 +1283,13 @@
         <v>25136</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="R3" s="1">
         <v>19292</v>
@@ -1251,13 +1298,13 @@
         <v>25136</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="V3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="W3" s="1">
         <v>22944</v>
@@ -1266,13 +1313,13 @@
         <v>26597</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="1">
         <v>19292</v>
@@ -1281,15 +1328,15 @@
         <v>25136</v>
       </c>
       <c r="AD3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1">
         <v>26597</v>
@@ -1298,13 +1345,13 @@
         <v>32441</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1">
         <v>22944</v>
@@ -1313,13 +1360,13 @@
         <v>26597</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M4" s="1">
         <v>26597</v>
@@ -1328,13 +1375,13 @@
         <v>32441</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="R4" s="1">
         <v>26597</v>
@@ -1343,13 +1390,13 @@
         <v>32441</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="V4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="W4" s="1">
         <v>22944</v>
@@ -1358,13 +1405,13 @@
         <v>26597</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AA4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AB4" s="1">
         <v>26597</v>
@@ -1373,15 +1420,15 @@
         <v>32441</v>
       </c>
       <c r="AD4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>26597</v>
@@ -1390,13 +1437,13 @@
         <v>32441</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1">
         <v>22944</v>
@@ -1405,13 +1452,13 @@
         <v>26597</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M5" s="1">
         <v>19292</v>
@@ -1420,15 +1467,15 @@
         <v>25136</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
         <v>19292</v>
@@ -1437,13 +1484,13 @@
         <v>25136</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H6" s="1">
         <v>19292</v>
@@ -1452,13 +1499,13 @@
         <v>25136</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M6" s="1">
         <v>19292</v>
@@ -1467,15 +1514,15 @@
         <v>25136</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>26597</v>
@@ -1484,13 +1531,13 @@
         <v>32441</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1">
         <v>19292</v>
@@ -1499,13 +1546,13 @@
         <v>25136</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M7" s="1">
         <v>26597</v>
@@ -1514,7 +1561,7 @@
         <v>32441</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCCBCDC-AD8C-4F89-844E-3D1BD3AD5816}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1538,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1546,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1554,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1562,55 +1609,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1636,24 +1683,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1690,94 +1737,94 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1808,139 +1855,139 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="V1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2048,136 +2095,136 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6628DD-48A1-470C-9C21-E4CCAE4F90F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B6D16-1C6A-40DB-AC40-992C4E6854AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LawlinkWinding" sheetId="8" r:id="rId8"/>
     <sheet name="LawlinkReceiverOfFine" sheetId="9" r:id="rId9"/>
     <sheet name="LawlinkCRO" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,35 +30,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
-  <si>
-    <t>santest1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
   <si>
-    <t>santest2</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B62693 LIMITED</t>
   </si>
   <si>
-    <t>santest3</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B43665 LIMITED</t>
   </si>
   <si>
-    <t>santest4</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B40061 LIMITED</t>
   </si>
   <si>
-    <t>santest5</t>
-  </si>
-  <si>
     <t>SKY AIRCRAFT B39875 LIMITED</t>
   </si>
   <si>
@@ -458,6 +444,12 @@
   </si>
   <si>
     <t>thomas</t>
+  </si>
+  <si>
+    <t>santest7</t>
+  </si>
+  <si>
+    <t>santest6</t>
   </si>
 </sst>
 </file>
@@ -793,7 +785,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,57 +797,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +861,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +874,7 @@
         <v>165789</v>
       </c>
       <c r="C1">
-        <v>148756</v>
+        <v>123108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -898,7 +890,7 @@
         <v>154567</v>
       </c>
       <c r="B3">
-        <v>148756</v>
+        <v>123108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,6 +923,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9F1AD0-4DE8-46DD-9EE3-BFF8073E8043}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -940,174 +945,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
         <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1152,10 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1">
         <v>22944</v>
@@ -1159,13 +1164,13 @@
         <v>25136</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1">
         <v>22944</v>
@@ -1174,13 +1179,13 @@
         <v>26597</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1">
         <v>26597</v>
@@ -1189,15 +1194,15 @@
         <v>28788</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>26597</v>
@@ -1206,13 +1211,13 @@
         <v>28788</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>25136</v>
@@ -1221,13 +1226,13 @@
         <v>28788</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1">
         <v>22944</v>
@@ -1236,15 +1241,15 @@
         <v>25136</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1">
         <v>22944</v>
@@ -1253,13 +1258,13 @@
         <v>30249</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H3" s="1">
         <v>22944</v>
@@ -1268,13 +1273,13 @@
         <v>26597</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M3" s="1">
         <v>19292</v>
@@ -1283,13 +1288,13 @@
         <v>25136</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R3" s="1">
         <v>19292</v>
@@ -1298,13 +1303,13 @@
         <v>25136</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W3" s="1">
         <v>22944</v>
@@ -1313,13 +1318,13 @@
         <v>26597</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB3" s="1">
         <v>19292</v>
@@ -1328,15 +1333,15 @@
         <v>25136</v>
       </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>26597</v>
@@ -1345,13 +1350,13 @@
         <v>32441</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H4" s="1">
         <v>22944</v>
@@ -1360,13 +1365,13 @@
         <v>26597</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M4" s="1">
         <v>26597</v>
@@ -1375,13 +1380,13 @@
         <v>32441</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R4" s="1">
         <v>26597</v>
@@ -1390,13 +1395,13 @@
         <v>32441</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W4" s="1">
         <v>22944</v>
@@ -1405,13 +1410,13 @@
         <v>26597</v>
       </c>
       <c r="Y4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB4" s="1">
         <v>26597</v>
@@ -1420,15 +1425,15 @@
         <v>32441</v>
       </c>
       <c r="AD4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
         <v>26597</v>
@@ -1437,13 +1442,13 @@
         <v>32441</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1">
         <v>22944</v>
@@ -1452,13 +1457,13 @@
         <v>26597</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M5" s="1">
         <v>19292</v>
@@ -1467,15 +1472,15 @@
         <v>25136</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>19292</v>
@@ -1484,13 +1489,13 @@
         <v>25136</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1">
         <v>19292</v>
@@ -1499,13 +1504,13 @@
         <v>25136</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M6" s="1">
         <v>19292</v>
@@ -1514,15 +1519,15 @@
         <v>25136</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1">
         <v>26597</v>
@@ -1531,13 +1536,13 @@
         <v>32441</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H7" s="1">
         <v>19292</v>
@@ -1546,13 +1551,13 @@
         <v>25136</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M7" s="1">
         <v>26597</v>
@@ -1561,7 +1566,7 @@
         <v>32441</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1572,92 +1577,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCCBCDC-AD8C-4F89-844E-3D1BD3AD5816}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1683,24 +1672,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1737,94 +1726,94 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1855,139 +1844,139 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>77</v>
-      </c>
       <c r="V1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB340BC-99D7-46B7-A70F-451B6AB4C9AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2095,136 +2084,136 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B6D16-1C6A-40DB-AC40-992C4E6854AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEEB485-302F-4F13-8B43-A8024428ED17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60FD6A-CCE7-473C-ACF7-D9BC42ACBF18}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="E1:V1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9F1AD0-4DE8-46DD-9EE3-BFF8073E8043}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -945,18 +945,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEEB485-302F-4F13-8B43-A8024428ED17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2376C3A-9DE8-43C1-8002-A594054FD6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,17 +946,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2376C3A-9DE8-43C1-8002-A594054FD6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659AE26E-1024-4778-B197-57A6BD370B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,18 +945,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA2F49-49B6-4FD2-A53F-7D7A78264C03}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V1" sqref="G1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB340BC-99D7-46B7-A70F-451B6AB4C9AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659AE26E-1024-4778-B197-57A6BD370B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C95DB2-2539-4276-9F3F-6AA90A61031D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>Receiver street 10</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/169192-2C30C9549CFEE0B17D81019FC92E127A/all.pdf</t>
   </si>
   <si>
     <t>mlaw</t>
@@ -797,10 +794,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -808,10 +805,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -819,10 +816,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -830,10 +827,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -841,10 +838,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -945,18 +942,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -965,24 +962,24 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -991,24 +988,24 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1017,27 +1014,27 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1045,42 +1042,42 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>129</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1091,25 +1088,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
         <v>134</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>135</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1587,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1603,7 +1600,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1611,7 +1608,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1635,7 +1632,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1710,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA2F49-49B6-4FD2-A53F-7D7A78264C03}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V1" sqref="G1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -1824,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE8A79-06EC-42FF-A015-CC665F80CC81}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,7 +1839,7 @@
     <col min="8" max="8" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1867,11 +1864,8 @@
       <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1885,7 +1879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1925,7 +1919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1939,7 +1933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1953,7 +1947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1990,7 +1984,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,7 +2048,7 @@
         <v>1715</v>
       </c>
       <c r="C7">
-        <v>1827</v>
+        <v>232222</v>
       </c>
     </row>
   </sheetData>
@@ -2067,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB340BC-99D7-46B7-A70F-451B6AB4C9AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C95DB2-2539-4276-9F3F-6AA90A61031D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46357-CF1B-494D-B3F0-209B5AECBD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A46357-CF1B-494D-B3F0-209B5AECBD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798D96F-0434-44A2-8931-2F98DC30ED09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -98,18 +98,12 @@
     <t>NO</t>
   </si>
   <si>
-    <t>https://qa.lawlink.ie</t>
-  </si>
-  <si>
     <t>https://uat.lawlink.ie</t>
   </si>
   <si>
     <t>https://staging.lawlink.ie</t>
   </si>
   <si>
-    <t>https://qa.cid.ie</t>
-  </si>
-  <si>
     <t>https://uat.cid.ie</t>
   </si>
   <si>
@@ -443,10 +437,37 @@
     <t>thomas</t>
   </si>
   <si>
-    <t>santest7</t>
-  </si>
-  <si>
-    <t>santest6</t>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205977-8B1E16BD5FBC3E6BB78277873CD919D8/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205978-BE098948D946AC701D8FAD95F3C3B418/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205979-85EFC9A3D9C1F37D124EDC55D95F8A4C/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205980-C2C24EADB3ABFF498E5B76E300268230/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205981-BB3930AD283FEDF485E53F926CACB922/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205982-9FFF1E4745101E94B219C8CFDB3AE75D/all.pdf</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205983-008FF9E5149021274C5E613EF009FD1F/all.pdf</t>
+  </si>
+  <si>
+    <t>santest1</t>
+  </si>
+  <si>
+    <t>santest2</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie</t>
+  </si>
+  <si>
+    <t>https://nonprod.cid.ie</t>
   </si>
 </sst>
 </file>
@@ -782,7 +803,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,10 +815,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -805,10 +826,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -816,10 +837,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -827,10 +848,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -838,10 +859,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -857,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60FD6A-CCE7-473C-ACF7-D9BC42ACBF18}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
@@ -929,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9F1AD0-4DE8-46DD-9EE3-BFF8073E8043}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -942,18 +963,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -962,50 +983,50 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1014,27 +1035,27 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -1042,71 +1063,71 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
         <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
         <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" t="s">
-        <v>135</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1179,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="1">
         <v>26597</v>
@@ -1226,10 +1247,10 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="1">
         <v>22944</v>
@@ -1243,10 +1264,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>22944</v>
@@ -1255,13 +1276,13 @@
         <v>30249</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1">
         <v>22944</v>
@@ -1270,13 +1291,13 @@
         <v>26597</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M3" s="1">
         <v>19292</v>
@@ -1285,13 +1306,13 @@
         <v>25136</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R3" s="1">
         <v>19292</v>
@@ -1300,13 +1321,13 @@
         <v>25136</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W3" s="1">
         <v>22944</v>
@@ -1315,13 +1336,13 @@
         <v>26597</v>
       </c>
       <c r="Y3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AA3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB3" s="1">
         <v>19292</v>
@@ -1330,15 +1351,15 @@
         <v>25136</v>
       </c>
       <c r="AD3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1">
         <v>26597</v>
@@ -1347,13 +1368,13 @@
         <v>32441</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1">
         <v>22944</v>
@@ -1362,13 +1383,13 @@
         <v>26597</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1">
         <v>26597</v>
@@ -1377,13 +1398,13 @@
         <v>32441</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R4" s="1">
         <v>26597</v>
@@ -1392,13 +1413,13 @@
         <v>32441</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W4" s="1">
         <v>22944</v>
@@ -1407,13 +1428,13 @@
         <v>26597</v>
       </c>
       <c r="Y4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AA4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB4" s="1">
         <v>26597</v>
@@ -1422,15 +1443,15 @@
         <v>32441</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>26597</v>
@@ -1439,13 +1460,13 @@
         <v>32441</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1">
         <v>22944</v>
@@ -1454,13 +1475,13 @@
         <v>26597</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" s="1">
         <v>19292</v>
@@ -1469,15 +1490,15 @@
         <v>25136</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>19292</v>
@@ -1486,13 +1507,13 @@
         <v>25136</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1">
         <v>19292</v>
@@ -1501,13 +1522,13 @@
         <v>25136</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M6" s="1">
         <v>19292</v>
@@ -1516,15 +1537,15 @@
         <v>25136</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>26597</v>
@@ -1533,13 +1554,13 @@
         <v>32441</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1">
         <v>19292</v>
@@ -1548,13 +1569,13 @@
         <v>25136</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="1">
         <v>26597</v>
@@ -1563,7 +1584,7 @@
         <v>32441</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1577,14 +1598,14 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -1592,7 +1613,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1600,7 +1621,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1608,7 +1629,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1616,7 +1637,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1624,7 +1645,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1632,7 +1653,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1640,7 +1661,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1657,7 +1678,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,24 +1690,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1723,94 +1744,94 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1841,136 +1862,136 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" t="s">
-        <v>115</v>
-      </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2002,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8A602-BF86-4836-AB42-E1919FCFFEB0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1989,7 +2010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>172234</v>
       </c>
@@ -1999,24 +2020,33 @@
       <c r="C1">
         <v>148756</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143456</v>
       </c>
       <c r="B2">
         <v>153678</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>154567</v>
       </c>
       <c r="B3">
         <v>148756</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>153458</v>
       </c>
@@ -2029,18 +2059,27 @@
       <c r="D4">
         <v>176789</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>129878</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>159878</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>153678</v>
       </c>
@@ -2049,6 +2088,9 @@
       </c>
       <c r="C7">
         <v>232222</v>
+      </c>
+      <c r="V7" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2104,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,136 +2120,136 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>118</v>
-      </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
